--- a/Inputs/Referenzlastprofile_EFH_NEH_15_Min.xlsx
+++ b/Inputs/Referenzlastprofile_EFH_NEH_15_Min.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\Inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B184C-E214-4B89-9E71-BC9C7B06AB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="24915" windowHeight="14625" activeTab="5"/>
+    <workbookView xWindow="-24750" yWindow="2415" windowWidth="21600" windowHeight="11100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÜWH" sheetId="4" r:id="rId1"/>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
@@ -126,14 +132,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,24 +425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -466,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -499,7 +508,7 @@
         <v>9.9248876240033788E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +541,7 @@
         <v>1.9832767661777412E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -565,7 +574,7 @@
         <v>2.962512496341542E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -598,7 +607,7 @@
         <v>3.9356055226255557E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -631,7 +640,7 @@
         <v>4.9107712798028447E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -664,7 +673,7 @@
         <v>5.892915759944535E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +706,7 @@
         <v>6.8700539578364847E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,7 +739,7 @@
         <v>7.8359596507776852E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,7 +772,7 @@
         <v>8.7932300496658802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -796,7 +805,7 @@
         <v>9.7323589218850662E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,7 +838,7 @@
         <v>0.10672081151992227</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +871,7 @@
         <v>0.11614933232496451</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,7 +904,7 @@
         <v>0.12562902467109877</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,7 +937,7 @@
         <v>0.13522225934112389</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,7 +970,7 @@
         <v>0.14792289912900702</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>0.16225584569981366</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>0.17655033665349298</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>0.19045752641990576</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>0.20374120669107226</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>0.21701402827904709</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>0.23035693872206858</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>0.24374029317814819</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>0.25710899131460019</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>0.27048241942026935</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>0.28380576684429965</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>0.29707698371910635</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>0.3073994536177953</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>0.31619239906966679</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>0.32498812079134298</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>0.33408772772496487</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>0.34391518756746908</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>0.35321743072870376</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>0.36246341304941382</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>0.37252427287390161</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>0.38334087241286335</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>0.39449548663167167</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>0.40586093998753009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>0.41741534260938756</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>0.42912835824239659</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>0.44107509037878445</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>0.45326448107294609</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>0.46572509529661871</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>0.47827977177821079</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>0.49167545544910496</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>0.50526262286396062</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>0.51813200039863094</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2026,7 @@
         <v>0.53031535155253262</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>0.54211735972451891</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>0.5536108659936273</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>0.5647356640178528</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>0.57548978667397221</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>0.58581110370131162</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>0.59579888076966381</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>0.60553496407294505</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2290,7 @@
         <v>0.6149881839350726</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>0.62407147744191538</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>0.63288096549585093</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>0.64149769655748878</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>0.64991951321812425</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>0.65781952823995093</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>0.66582890968719466</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>0.67393610549183547</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -2545,7 +2554,7 @@
         <v>0.68210226180421085</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>0.69044924593400625</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>0.69906994925737975</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>0.70769275276914123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>0.71645513057358579</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>0.72533760289028615</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +2752,7 @@
         <v>0.7343177882382369</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>0.74336680171862202</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>0.75262355536883274</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>0.76253358557282924</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>0.77252690261856616</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>0.78253769577086851</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>0.79256380172940599</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>0.80246686216692431</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>0.81213586277040384</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3049,7 @@
         <v>0.8217152678768217</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>0.83124149507914546</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>0.84071855893579939</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>0.84968739004637284</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3172,7 +3181,7 @@
         <v>0.85872373125932899</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>0.86772861530923096</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>0.87675758802352466</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>0.88576850688831799</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>0.89496787406029554</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>0.90432929042514132</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>0.91393937308156759</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>0.92371481893649199</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>0.93383773141660287</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>0.94412138363322862</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>0.95450931462645483</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>0.96566088598594046</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>0.97695794923155144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>0.98843930377629241</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -3640,24 +3649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>1.6699565319096322E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>3.4611988114782444E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>5.418463598658857E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>7.5008393835936285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>9.6941343441882516E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>0.11945627168230856</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>0.14131649406317801</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>0.16345678058696331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +3996,7 @@
         <v>0.18535471006265175</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>0.20697391579277796</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4053,7 +4062,7 @@
         <v>0.22820807044131547</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>0.24876893371401926</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>0.26799367300018206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>0.28612433289876166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>0.30267796133756159</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4218,7 +4227,7 @@
         <v>0.31747889088285103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4260,7 @@
         <v>0.33050500763742291</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4293,7 @@
         <v>0.34251014995715079</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>0.35471921631883435</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>0.36659191250515488</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>0.37883309945429422</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4416,7 +4425,7 @@
         <v>0.39118380824585858</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>0.40319125204599227</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>0.41531530846057596</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>0.4277048807246967</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>0.43984270966164718</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>0.45107278759433472</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>0.46145032379123302</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4647,7 +4656,7 @@
         <v>0.47183687059285212</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>0.48171349230905697</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>0.49148160389511336</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>0.50114216380527066</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>0.51037258305780187</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>0.51945370492350884</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>0.52845659422229985</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>0.5370358812749304</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -4911,7 +4920,7 @@
         <v>0.54523219783905419</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>0.55338150798580454</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>0.56198904302395269</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>0.57124897777415251</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5052,7 @@
         <v>0.58037027043142431</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>0.5892561914449006</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>0.59765488929436827</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>0.60568238591092416</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>0.61354635173408612</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>0.62112525251625172</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -5241,7 +5250,7 @@
         <v>0.62857184419540479</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5274,7 +5283,7 @@
         <v>0.63614096226684014</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -5307,7 +5316,7 @@
         <v>0.64368323017521967</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -5340,7 +5349,7 @@
         <v>0.65102025229362015</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -5373,7 +5382,7 @@
         <v>0.65836630570646293</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v>0.66560241623220862</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -5439,7 +5448,7 @@
         <v>0.67266371486045473</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>0.67983534038800064</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>0.68722331070557618</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -5538,7 +5547,7 @@
         <v>0.69470001658257929</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>0.70234230172599021</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>0.70996644563119049</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5646,7 @@
         <v>0.71748595599488008</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>0.72491788811013369</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -5703,7 +5712,7 @@
         <v>0.73234019106926174</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>0.73985473746488717</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>0.74702942474454981</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>0.75397823089787464</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>0.76106862988424251</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5868,7 +5877,7 @@
         <v>0.7681221671293077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>0.77522745001251658</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>0.78240843567682883</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>0.78964529198437883</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -6000,7 +6009,7 @@
         <v>0.79689827573717176</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>0.80420584887051016</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>0.8115691341392014</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>0.81891729714059136</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>0.82621962850268527</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>0.83388886469996271</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>0.84190084434344004</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>0.84992649313676794</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -6264,7 +6273,7 @@
         <v>0.85760832653434527</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -6297,7 +6306,7 @@
         <v>0.86541201077991259</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -6330,7 +6339,7 @@
         <v>0.87318291651692137</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>0.88084932919881176</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -6396,7 +6405,7 @@
         <v>0.88871539905511365</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -6429,7 +6438,7 @@
         <v>0.89657901288606978</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>0.90429278078009678</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -6495,7 +6504,7 @@
         <v>0.91221380531885399</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>0.92013104723135741</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>0.92799695351137734</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -6594,7 +6603,7 @@
         <v>0.9358663788660565</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -6627,7 +6636,7 @@
         <v>0.94357503769143203</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>0.95158070747502954</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -6693,7 +6702,7 @@
         <v>0.95963565577502175</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>0.96776696056017064</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -6759,7 +6768,7 @@
         <v>0.97584698055960628</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>0.98379788510445609</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -6825,7 +6834,7 @@
         <v>0.99184810265645662</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -6865,24 +6874,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6915,7 +6924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6948,7 +6957,7 @@
         <v>8.6377243423604276E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -6981,7 +6990,7 @@
         <v>1.7860949709387237E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -7014,7 +7023,7 @@
         <v>2.7550033350512738E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>3.7692699747617096E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7080,7 +7089,7 @@
         <v>4.8346936701460279E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7113,7 +7122,7 @@
         <v>5.942981889989863E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7146,7 +7155,7 @@
         <v>7.1072663963946126E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>8.3499659733382747E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -7212,7 +7221,7 @@
         <v>9.6771538834250367E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>0.11077887723960073</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>0.12536631087265987</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>0.14250308154414273</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>0.16214145908049166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7377,7 +7386,7 @@
         <v>0.18407929320197436</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -7410,7 +7419,7 @@
         <v>0.20816556836336619</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -7443,7 +7452,7 @@
         <v>0.23426820992842717</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -7476,7 +7485,7 @@
         <v>0.26207023818479391</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>0.29133547832860657</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>0.32005713087263565</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -7575,7 +7584,7 @@
         <v>0.34847813338210776</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7608,7 +7617,7 @@
         <v>0.37684567029129085</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -7641,7 +7650,7 @@
         <v>0.40455932561207825</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -7674,7 +7683,7 @@
         <v>0.43154373094956106</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -7707,7 +7716,7 @@
         <v>0.45571848129784698</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>0.47691902771915373</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -7773,7 +7782,7 @@
         <v>0.49518182527226995</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -7806,7 +7815,7 @@
         <v>0.51064109028366822</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -7839,7 +7848,7 @@
         <v>0.52336219556464503</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -7872,7 +7881,7 @@
         <v>0.53352882726364448</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>0.5410669869916902</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -7938,7 +7947,7 @@
         <v>0.54804642124494818</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>0.55442690475918988</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -8004,7 +8013,7 @@
         <v>0.55989504580772764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -8037,7 +8046,7 @@
         <v>0.56504180463065801</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -8070,7 +8079,7 @@
         <v>0.57009462962166724</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>0.57508316062059028</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -8136,7 +8145,7 @@
         <v>0.5800608080875933</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>0.58508320070079967</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -8202,7 +8211,7 @@
         <v>0.59022541612474622</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>0.59555491735818056</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -8268,7 +8277,7 @@
         <v>0.60105173983236782</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -8301,7 +8310,7 @@
         <v>0.60700894739124733</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -8334,7 +8343,7 @@
         <v>0.61320386414293904</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8376,7 @@
         <v>0.61941110211527028</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -8400,7 +8409,7 @@
         <v>0.6255718902216334</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -8433,7 +8442,7 @@
         <v>0.63173337611377411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -8466,7 +8475,7 @@
         <v>0.63790792041045519</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -8499,7 +8508,7 @@
         <v>0.64407124486192913</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -8532,7 +8541,7 @@
         <v>0.65020244439020669</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8565,7 +8574,7 @@
         <v>0.65631966544549214</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -8598,7 +8607,7 @@
         <v>0.66227579817545923</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>0.66798742958861101</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>0.673499739049229</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -8697,7 +8706,7 @@
         <v>0.67884063536404982</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -8730,7 +8739,7 @@
         <v>0.68384361447724362</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>0.68856188326572354</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -8796,7 +8805,7 @@
         <v>0.69320790145048972</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>0.69784359797899731</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>0.70252164012248008</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -8895,7 +8904,7 @@
         <v>0.70726752190795916</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>0.71203688009975008</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -8961,7 +8970,7 @@
         <v>0.71678960023130889</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -8994,7 +9003,7 @@
         <v>0.7215758045189995</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -9027,7 +9036,7 @@
         <v>0.72642037436607398</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -9060,7 +9069,7 @@
         <v>0.73127114869540644</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -9093,7 +9102,7 @@
         <v>0.73612397103831106</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -9126,7 +9135,7 @@
         <v>0.74127399900345481</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>0.7466608556139358</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -9192,7 +9201,7 @@
         <v>0.75215086344152182</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -9225,7 +9234,7 @@
         <v>0.75735491457450232</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9267,7 @@
         <v>0.76255197923330909</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -9291,7 +9300,7 @@
         <v>0.76814343399673657</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -9324,7 +9333,7 @@
         <v>0.77398834794023896</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -9357,7 +9366,7 @@
         <v>0.78016487380534505</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -9390,7 +9399,7 @@
         <v>0.78670592497166847</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -9423,7 +9432,7 @@
         <v>0.79369974842256441</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -9456,7 +9465,7 @@
         <v>0.80115418724894893</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>0.8092836353401095</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -9522,7 +9531,7 @@
         <v>0.81796414569775411</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -9555,7 +9564,7 @@
         <v>0.82714390134446303</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -9588,7 +9597,7 @@
         <v>0.83691300376801803</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v>0.84763177115155153</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -9654,7 +9663,7 @@
         <v>0.85885891027415051</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -9687,7 +9696,7 @@
         <v>0.86967847098649398</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -9720,7 +9729,7 @@
         <v>0.88081961606594494</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -9753,7 +9762,7 @@
         <v>0.89221515285973507</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -9786,7 +9795,7 @@
         <v>0.90382084685032005</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -9819,7 +9828,7 @@
         <v>0.9154265385519198</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -9852,7 +9861,7 @@
         <v>0.9268797795784991</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -9885,7 +9894,7 @@
         <v>0.9378936939008844</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>0.94863990082021277</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -9951,7 +9960,7 @@
         <v>0.95929981534527065</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -9984,7 +9993,7 @@
         <v>0.96967636269741919</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -10017,7 +10026,7 @@
         <v>0.9797259750904237</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -10050,7 +10059,7 @@
         <v>0.98954191640126532</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -10089,24 +10098,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10139,7 +10148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10172,7 +10181,7 @@
         <v>1.3080119309074E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10205,7 +10214,7 @@
         <v>2.6369898854692091E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -10238,7 +10247,7 @@
         <v>3.9692893428316035E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>5.2655753762562513E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -10304,7 +10313,7 @@
         <v>6.5844689957028121E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -10337,7 +10346,7 @@
         <v>7.8996021167088704E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -10370,7 +10379,7 @@
         <v>9.2328386004902355E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10403,7 +10412,7 @@
         <v>0.10581372650036203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10436,7 +10445,7 @@
         <v>0.1194977736729653</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -10469,7 +10478,7 @@
         <v>0.13337609164267689</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10502,7 +10511,7 @@
         <v>0.1474526340729847</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>0.16169626623040387</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10568,7 +10577,7 @@
         <v>0.17599964210712254</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -10601,7 +10610,7 @@
         <v>0.19031633992528432</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -10634,7 +10643,7 @@
         <v>0.20478996876456962</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -10667,7 +10676,7 @@
         <v>0.21976958059673349</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -10700,7 +10709,7 @@
         <v>0.23436690453576531</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -10733,7 +10742,7 @@
         <v>0.2492362989616535</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -10766,7 +10775,7 @@
         <v>0.26416312307803896</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -10799,7 +10808,7 @@
         <v>0.27904803522691041</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -10832,7 +10841,7 @@
         <v>0.29393436149676394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10865,7 +10874,7 @@
         <v>0.30877315069300487</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -10898,7 +10907,7 @@
         <v>0.32357029270261656</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>0.33834600474403526</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -10964,7 +10973,7 @@
         <v>0.35309863673546305</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -10997,7 +11006,7 @@
         <v>0.36784619995772982</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -11030,7 +11039,7 @@
         <v>0.38252963305690485</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -11063,7 +11072,7 @@
         <v>0.39708507024748435</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -11096,7 +11105,7 @@
         <v>0.41183511303937842</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -11129,7 +11138,7 @@
         <v>0.42624526623353443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -11162,7 +11171,7 @@
         <v>0.44038809078570812</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11195,7 +11204,7 @@
         <v>0.45422058603819915</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -11228,7 +11237,7 @@
         <v>0.46767986153154772</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -11261,7 +11270,7 @@
         <v>0.48078252595032528</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -11294,7 +11303,7 @@
         <v>0.49333647458493718</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -11327,7 +11336,7 @@
         <v>0.50571215343125742</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>0.51752414080568054</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -11393,7 +11402,7 @@
         <v>0.52892525124141287</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -11426,7 +11435,7 @@
         <v>0.53995792689665179</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -11459,7 +11468,7 @@
         <v>0.5506403546240598</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -11492,7 +11501,7 @@
         <v>0.56109925633819802</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -11525,7 +11534,7 @@
         <v>0.57133102930442492</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -11558,7 +11567,7 @@
         <v>0.58118767393556681</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -11591,7 +11600,7 @@
         <v>0.59082828144929744</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -11624,7 +11633,7 @@
         <v>0.60004233821664033</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -11657,7 +11666,7 @@
         <v>0.60897897019077729</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -11690,7 +11699,7 @@
         <v>0.61767171257521447</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -11723,7 +11732,7 @@
         <v>0.62619183479392426</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -11756,7 +11765,7 @@
         <v>0.63436872328444649</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>0.64241606051117406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -11822,7 +11831,7 @@
         <v>0.6501848453037341</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -11855,7 +11864,7 @@
         <v>0.6575828491770479</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -11888,7 +11897,7 @@
         <v>0.66459165333836823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -11921,7 +11930,7 @@
         <v>0.67151038892598469</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -11954,7 +11963,7 @@
         <v>0.67809795769221526</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -11987,7 +11996,7 @@
         <v>0.68451606377229812</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -12020,7 +12029,7 @@
         <v>0.69102426864134747</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>0.69752524499988755</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12095,7 @@
         <v>0.70417230386136043</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -12119,7 +12128,7 @@
         <v>0.71077745933914627</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -12152,7 +12161,7 @@
         <v>0.7172965670166177</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -12185,7 +12194,7 @@
         <v>0.72369746506455135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -12218,7 +12227,7 @@
         <v>0.73009317370187243</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -12251,7 +12260,7 @@
         <v>0.73656170790182773</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -12284,7 +12293,7 @@
         <v>0.7431179334123551</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -12317,7 +12326,7 @@
         <v>0.74955329183114705</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -12350,7 +12359,7 @@
         <v>0.7562384813887556</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -12383,7 +12392,7 @@
         <v>0.76289230938292607</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -12416,7 +12425,7 @@
         <v>0.76971572094241314</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -12449,7 +12458,7 @@
         <v>0.77635478815505798</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -12482,7 +12491,7 @@
         <v>0.78288538701228627</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -12515,7 +12524,7 @@
         <v>0.78913381747848821</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -12548,7 +12557,7 @@
         <v>0.79570693760214828</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -12581,7 +12590,7 @@
         <v>0.80251184387835972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -12614,7 +12623,7 @@
         <v>0.80943093135209176</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>0.81646058242594888</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -12680,7 +12689,7 @@
         <v>0.82357525020953981</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -12713,7 +12722,7 @@
         <v>0.83074993743865888</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -12746,7 +12755,7 @@
         <v>0.83815441165012328</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -12779,7 +12788,7 @@
         <v>0.84587936342037418</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -12812,7 +12821,7 @@
         <v>0.85364581373207105</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -12845,7 +12854,7 @@
         <v>0.86180506293594872</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -12878,7 +12887,7 @@
         <v>0.8704117495105419</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>0.87931821754098272</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -12944,7 +12953,7 @@
         <v>0.8885221681511748</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -12977,7 +12986,7 @@
         <v>0.89776087576594188</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -13010,7 +13019,7 @@
         <v>0.9069788689915681</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -13043,7 +13052,7 @@
         <v>0.91676575551264505</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -13076,7 +13085,7 @@
         <v>0.92669954233587093</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -13109,7 +13118,7 @@
         <v>0.9368970567400714</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -13142,7 +13151,7 @@
         <v>0.94725498061793112</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -13175,7 +13184,7 @@
         <v>0.95762107224171245</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -13208,7 +13217,7 @@
         <v>0.96809968961168091</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -13241,7 +13250,7 @@
         <v>0.97871855326303658</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -13274,7 +13283,7 @@
         <v>0.98931621355323429</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -13313,24 +13322,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13363,7 +13372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>1.4283897321355073E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13429,7 +13438,7 @@
         <v>2.8751266436658887E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -13462,7 +13471,7 @@
         <v>4.3199207811739998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -13495,7 +13504,7 @@
         <v>5.7440229580141132E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -13528,7 +13537,7 @@
         <v>7.153532900102294E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>8.5806728362519513E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -13594,7 +13603,7 @@
         <v>9.9714086961459267E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -13627,7 +13636,7 @@
         <v>0.11355795535526529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -13660,7 +13669,7 @@
         <v>0.12768136841455208</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -13693,7 +13702,7 @@
         <v>0.14176800359024019</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -13726,7 +13735,7 @@
         <v>0.15575297472676769</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13759,7 +13768,7 @@
         <v>0.16965492903227955</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -13792,7 +13801,7 @@
         <v>0.18365458337359672</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -13825,7 +13834,7 @@
         <v>0.19736197629634869</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -13858,7 +13867,7 @@
         <v>0.21097670451620806</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -13891,7 +13900,7 @@
         <v>0.22497446515101027</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -13924,7 +13933,7 @@
         <v>0.23892018430805442</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -13957,7 +13966,7 @@
         <v>0.2526317439327207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +13999,7 @@
         <v>0.26656087331722</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +14032,7 @@
         <v>0.28067607803199673</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -14056,7 +14065,7 @@
         <v>0.29475561074109907</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14089,7 +14098,7 @@
         <v>0.3087202855354596</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -14122,7 +14131,7 @@
         <v>0.32240031473791281</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -14155,7 +14164,7 @@
         <v>0.33536971136892985</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -14188,7 +14197,7 @@
         <v>0.34817830565601265</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -14221,7 +14230,7 @@
         <v>0.3609466503879768</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -14254,7 +14263,7 @@
         <v>0.37362309695822943</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -14287,7 +14296,7 @@
         <v>0.38616760102556019</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -14320,7 +14329,7 @@
         <v>0.39870107332760124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>0.41104177958936949</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -14386,7 +14395,7 @@
         <v>0.42235200069203166</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>0.43316746302280484</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -14452,7 +14461,7 @@
         <v>0.44404158535808852</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -14485,7 +14494,7 @@
         <v>0.45483410080085496</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -14518,7 +14527,7 @@
         <v>0.46595675391080948</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -14551,7 +14560,7 @@
         <v>0.4778667055408215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -14584,7 +14593,7 @@
         <v>0.48962482808885055</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -14617,7 +14626,7 @@
         <v>0.50144344872570479</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -14650,7 +14659,7 @@
         <v>0.51333825427314916</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -14683,7 +14692,7 @@
         <v>0.52524240437255054</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -14716,7 +14725,7 @@
         <v>0.53731585766943268</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -14749,7 +14758,7 @@
         <v>0.54881196971556134</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -14782,7 +14791,7 @@
         <v>0.56035860719137798</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -14815,7 +14824,7 @@
         <v>0.57223324686672494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -14848,7 +14857,7 @@
         <v>0.58378618724429676</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -14881,7 +14890,7 @@
         <v>0.59544828596480348</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -14914,7 +14923,7 @@
         <v>0.60738941181692752</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -14947,7 +14956,7 @@
         <v>0.61898364674470863</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -14980,7 +14989,7 @@
         <v>0.63062408253058178</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -15013,7 +15022,7 @@
         <v>0.64248646010283783</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -15046,7 +15055,7 @@
         <v>0.65418701443387517</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -15079,7 +15088,7 @@
         <v>0.66556124867168309</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -15112,7 +15121,7 @@
         <v>0.67700987201032847</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -15145,7 +15154,7 @@
         <v>0.68866875438999753</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -15178,7 +15187,7 @@
         <v>0.70011641089590704</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -15211,7 +15220,7 @@
         <v>0.71047206462582846</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -15244,7 +15253,7 @@
         <v>0.71983878163485593</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15286,7 @@
         <v>0.72812872837310527</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -15310,7 +15319,7 @@
         <v>0.73506623057249987</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -15343,7 +15352,7 @@
         <v>0.74102178834573973</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -15376,7 +15385,7 @@
         <v>0.74599159968821449</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>0.7497066799063995</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -15442,7 +15451,7 @@
         <v>0.75250388769800225</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -15475,7 +15484,7 @@
         <v>0.75432916475342215</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -15508,7 +15517,7 @@
         <v>0.75491020916296214</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -15541,7 +15550,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -15574,7 +15583,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -15607,7 +15616,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -15640,7 +15649,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -15673,7 +15682,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -15706,7 +15715,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -15739,7 +15748,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -15772,7 +15781,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -15805,7 +15814,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -15838,7 +15847,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -15871,7 +15880,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -15904,7 +15913,7 @@
         <v>0.75547294482062921</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -15937,7 +15946,7 @@
         <v>0.75857579493945548</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -15970,7 +15979,7 @@
         <v>0.76333151591595771</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -16003,7 +16012,7 @@
         <v>0.7697338085890949</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -16036,7 +16045,7 @@
         <v>0.77755978792071889</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -16069,7 +16078,7 @@
         <v>0.7867871693714531</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -16102,7 +16111,7 @@
         <v>0.79757565568326638</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -16135,7 +16144,7 @@
         <v>0.80975013268140439</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -16168,7 +16177,7 @@
         <v>0.82311469767283751</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -16201,7 +16210,7 @@
         <v>0.83788464893530679</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -16234,7 +16243,7 @@
         <v>0.85391883445886363</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -16267,7 +16276,7 @@
         <v>0.87104408649197629</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -16300,7 +16309,7 @@
         <v>0.88886143045470134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -16333,7 +16342,7 @@
         <v>0.9055517329984073</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -16366,7 +16375,7 @@
         <v>0.92186577372692013</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -16399,7 +16408,7 @@
         <v>0.937849132173183</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -16432,7 +16441,7 @@
         <v>0.95371993987093806</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -16465,7 +16474,7 @@
         <v>0.96947615090246142</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -16498,7 +16507,7 @@
         <v>0.9848321338985272</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -16537,24 +16546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16587,7 +16596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -16620,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -16653,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -16686,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -16719,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -16752,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -16785,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -16818,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16851,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -16884,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -16917,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -16950,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -16983,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -17016,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -17049,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -17082,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -17115,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -17148,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -17181,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -17247,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -17280,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -17313,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -17346,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -17379,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -17412,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -17445,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -17478,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -17511,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -17544,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -17577,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -17610,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -17643,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -17676,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -17709,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -17742,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -17775,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -17808,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -17841,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -17874,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -17907,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -17940,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -17973,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -18006,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -18039,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -18072,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -18105,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -18138,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -18171,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -18204,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -18237,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -18270,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -18303,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -18336,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -18369,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -18402,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -18435,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -18468,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -18501,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -18534,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -18567,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -18600,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -18633,7 +18642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -18666,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -18699,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -18732,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -18765,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -18798,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -18831,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -18864,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -18897,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -18930,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -18963,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -18996,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -19029,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -19062,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -19095,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -19128,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -19161,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -19194,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -19227,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -19260,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -19293,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -19326,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -19359,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -19392,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -19425,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -19458,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -19491,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -19524,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -19557,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -19590,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -19623,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -19656,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -19689,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -19722,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -19761,24 +19770,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19811,7 +19820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -19844,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -19877,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -19910,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -19943,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -19976,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -20009,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -20042,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -20075,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -20108,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -20141,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -20174,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -20207,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -20240,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -20273,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -20306,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -20339,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -20372,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -20405,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -20438,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -20471,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -20504,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -20537,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -20570,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -20603,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -20636,7 +20645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -20669,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -20702,7 +20711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -20735,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -20768,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -20801,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -20834,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -20867,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -20900,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -20933,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -20966,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -20999,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -21032,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -21065,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -21098,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -21131,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -21164,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -21197,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -21230,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -21263,7 +21272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -21296,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -21329,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -21362,7 +21371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -21395,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -21428,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -21461,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -21494,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -21527,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -21560,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -21593,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -21626,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -21659,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -21692,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -21725,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -21758,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -21791,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -21824,7 +21833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -21857,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -21890,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -21923,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -21956,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -21989,7 +21998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -22022,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -22055,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -22088,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -22121,7 +22130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -22154,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -22187,7 +22196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -22220,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -22253,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -22286,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -22319,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -22352,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -22385,7 +22394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -22418,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -22451,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -22484,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -22517,7 +22526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -22550,7 +22559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -22583,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -22616,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -22649,7 +22658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -22682,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -22715,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -22748,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -22781,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -22814,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -22847,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -22880,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -22913,7 +22922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -22946,7 +22955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -22985,24 +22994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -23035,7 +23044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -23068,7 +23077,7 @@
         <v>1.01333104036992E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -23101,7 +23110,7 @@
         <v>1.9920790577768313E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -23134,7 +23143,7 @@
         <v>2.9512470896657386E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -23167,7 +23176,7 @@
         <v>3.8877275984083949E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -23200,7 +23209,7 @@
         <v>4.8131301540396208E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -23233,7 +23242,7 @@
         <v>5.7262184863814874E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -23266,7 +23275,7 @@
         <v>6.6429333118798881E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -23299,7 +23308,7 @@
         <v>7.5616378052279776E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -23332,7 +23341,7 @@
         <v>8.4773806308431787E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -23365,7 +23374,7 @@
         <v>9.3883315853822633E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -23398,7 +23407,7 @@
         <v>0.10301599752471682</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -23431,7 +23440,7 @@
         <v>0.11293184248570629</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -23464,7 +23473,7 @@
         <v>0.12592760694012478</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -23497,7 +23506,7 @@
         <v>0.14259189134168504</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -23530,7 +23539,7 @@
         <v>0.16280037114032928</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -23563,7 +23572,7 @@
         <v>0.18644848666561348</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -23596,7 +23605,7 @@
         <v>0.2133576236990633</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -23629,7 +23638,7 @@
         <v>0.24210000930652795</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -23662,7 +23671,7 @@
         <v>0.27060855440740123</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -23695,7 +23704,7 @@
         <v>0.30143098671671537</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -23728,7 +23737,7 @@
         <v>0.3343267102328798</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -23761,7 +23770,7 @@
         <v>0.36892372548912472</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -23794,7 +23803,7 @@
         <v>0.40462030397213278</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -23827,7 +23836,7 @@
         <v>0.43999653898034935</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -23860,7 +23869,7 @@
         <v>0.47242716580548211</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -23893,7 +23902,7 @@
         <v>0.501140901431957</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -23926,7 +23935,7 @@
         <v>0.52616530033311371</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -23959,7 +23968,7 @@
         <v>0.54764265432528569</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -23992,7 +24001,7 @@
         <v>0.5657568462124436</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -24025,7 +24034,7 @@
         <v>0.58210494851891204</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -24058,7 +24067,7 @@
         <v>0.59884898069140668</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -24091,7 +24100,7 @@
         <v>0.61334056189721442</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -24124,7 +24133,7 @@
         <v>0.62526823158772615</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -24157,7 +24166,7 @@
         <v>0.6347135743184612</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -24190,7 +24199,7 @@
         <v>0.64242850455695655</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -24223,7 +24232,7 @@
         <v>0.64912386196700267</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -24256,7 +24265,7 @@
         <v>0.65536652819276919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -24289,7 +24298,7 @@
         <v>0.6615650552760397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -24322,7 +24331,7 @@
         <v>0.66770689133656191</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -24355,7 +24364,7 @@
         <v>0.6737905592898904</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -24388,7 +24397,7 @@
         <v>0.67973928349196333</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -24421,7 +24430,7 @@
         <v>0.68539710846473556</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -24454,7 +24463,7 @@
         <v>0.69057431407322789</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -24487,7 +24496,7 @@
         <v>0.69542795509927824</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -24520,7 +24529,7 @@
         <v>0.70038291295142063</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -24553,7 +24562,7 @@
         <v>0.70549068375574842</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -24586,7 +24595,7 @@
         <v>0.71072272595554498</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -24619,7 +24628,7 @@
         <v>0.71592107524958837</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -24652,7 +24661,7 @@
         <v>0.72107993754476607</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -24685,7 +24694,7 @@
         <v>0.72626803428291031</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -24718,7 +24727,7 @@
         <v>0.73146846173565661</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -24751,7 +24760,7 @@
         <v>0.73668992527377508</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -24784,7 +24793,7 @@
         <v>0.74194790720123327</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -24817,7 +24826,7 @@
         <v>0.74723550440498665</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -24850,7 +24859,7 @@
         <v>0.75259304494157286</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -24883,7 +24892,7 @@
         <v>0.75797780654154712</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -24916,7 +24925,7 @@
         <v>0.76349190213828066</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -24949,7 +24958,7 @@
         <v>0.76931142233182159</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -24982,7 +24991,7 @@
         <v>0.775105421675229</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -25015,7 +25024,7 @@
         <v>0.78086364235528105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -25048,7 +25057,7 @@
         <v>0.78657438707542116</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -25081,7 +25090,7 @@
         <v>0.79220403162560937</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -25114,7 +25123,7 @@
         <v>0.7979319451733452</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -25147,7 +25156,7 @@
         <v>0.80363002226823821</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -25180,7 +25189,7 @@
         <v>0.80929998482123611</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -25213,7 +25222,7 @@
         <v>0.81494422064813199</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -25246,7 +25255,7 @@
         <v>0.82032207986895389</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -25279,7 +25288,7 @@
         <v>0.82546985057426903</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -25312,7 +25321,7 @@
         <v>0.83064231315242587</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -25345,7 +25354,7 @@
         <v>0.83585202314850726</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -25378,7 +25387,7 @@
         <v>0.84112086899531135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -25411,7 +25420,7 @@
         <v>0.84647353832651828</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -25444,7 +25453,7 @@
         <v>0.85186357764215925</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -25477,7 +25486,7 @@
         <v>0.85731045292672059</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -25510,7 +25519,7 @@
         <v>0.86275993744757462</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -25543,7 +25552,7 @@
         <v>0.8682977014755755</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -25576,7 +25585,7 @@
         <v>0.87390935355687327</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -25609,7 +25618,7 @@
         <v>0.87958585053662808</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -25642,7 +25651,7 @@
         <v>0.88551116538166197</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -25675,7 +25684,7 @@
         <v>0.89170435868897679</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -25708,7 +25717,7 @@
         <v>0.89789795925794957</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -25741,7 +25750,7 @@
         <v>0.90412439120218246</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -25774,7 +25783,7 @@
         <v>0.91041180049945669</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -25807,7 +25816,7 @@
         <v>0.91675124604447289</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -25840,7 +25849,7 @@
         <v>0.92318112410566311</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -25873,7 +25882,7 @@
         <v>0.92969258387416909</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -25906,7 +25915,7 @@
         <v>0.93629156098229749</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -25939,7 +25948,7 @@
         <v>0.94295911531181731</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -25972,7 +25981,7 @@
         <v>0.94970868637265726</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -26005,7 +26014,7 @@
         <v>0.95656647698899833</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -26038,7 +26047,7 @@
         <v>0.96356008704880902</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -26071,7 +26080,7 @@
         <v>0.97064708087136709</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -26104,7 +26113,7 @@
         <v>0.97784627493409726</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -26137,7 +26146,7 @@
         <v>0.98514165067689186</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -26170,7 +26179,7 @@
         <v>0.99251672901651899</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -26209,24 +26218,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -26259,7 +26268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -26292,7 +26301,7 @@
         <v>1.0552856887292482E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -26325,7 +26334,7 @@
         <v>2.1043114927829294E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -26358,7 +26367,7 @@
         <v>3.1528845280479327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -26391,7 +26400,7 @@
         <v>4.20972082557068E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -26424,7 +26433,7 @@
         <v>5.2741628571634711E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -26457,7 +26466,7 @@
         <v>6.3406497379661655E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -26490,7 +26499,7 @@
         <v>7.4159540723747613E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -26523,7 +26532,7 @@
         <v>8.4809800615507858E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -26556,7 +26565,7 @@
         <v>9.5262164945927402E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -26589,7 +26598,7 @@
         <v>0.10598786551657907</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -26622,7 +26631,7 @@
         <v>0.1166757839620754</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -26655,7 +26664,7 @@
         <v>0.12732123660451081</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -26688,7 +26697,7 @@
         <v>0.13808776415659668</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -26721,7 +26730,7 @@
         <v>0.14893800622324388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -26754,7 +26763,7 @@
         <v>0.15978238591664715</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -26787,7 +26796,7 @@
         <v>0.17062059841089822</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -26820,7 +26829,7 @@
         <v>0.18147351420512822</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -26853,7 +26862,7 @@
         <v>0.19240125559410942</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -26886,7 +26895,7 @@
         <v>0.20330533191615838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -26919,7 +26928,7 @@
         <v>0.21434127461486613</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -26952,7 +26961,7 @@
         <v>0.22574148741584826</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -26985,7 +26994,7 @@
         <v>0.23690000443555698</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -27018,7 +27027,7 @@
         <v>0.24814827060685843</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -27051,7 +27060,7 @@
         <v>0.25954297885984234</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -27084,7 +27093,7 @@
         <v>0.27035219339170913</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -27117,7 +27126,7 @@
         <v>0.28133897352745485</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -27150,7 +27159,7 @@
         <v>0.29243565755942863</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -27183,7 +27192,7 @@
         <v>0.3034860422334692</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -27216,7 +27225,7 @@
         <v>0.31460706031218716</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -27249,7 +27258,7 @@
         <v>0.3257536480744555</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -27282,7 +27291,7 @@
         <v>0.33706488696871961</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -27315,7 +27324,7 @@
         <v>0.34842168119348516</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -27348,7 +27357,7 @@
         <v>0.3597859060371098</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -27381,7 +27390,7 @@
         <v>0.37126410709535868</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -27414,7 +27423,7 @@
         <v>0.38247438127421018</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -27447,7 +27456,7 @@
         <v>0.3937496869715898</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -27480,7 +27489,7 @@
         <v>0.40560272700201544</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -27513,7 +27522,7 @@
         <v>0.41738096381587653</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -27546,7 +27555,7 @@
         <v>0.42920112872191873</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -27579,7 +27588,7 @@
         <v>0.44114291324490679</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -27612,7 +27621,7 @@
         <v>0.45305585206997928</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -27645,7 +27654,7 @@
         <v>0.46497010595549465</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -27678,7 +27687,7 @@
         <v>0.47688339091994836</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -27711,7 +27720,7 @@
         <v>0.48868741113058806</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -27744,7 +27753,7 @@
         <v>0.50041703491419054</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -27777,7 +27786,7 @@
         <v>0.51211283642546768</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -27810,7 +27819,7 @@
         <v>0.52403003258827141</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -27843,7 +27852,7 @@
         <v>0.53552208369385446</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -27876,7 +27885,7 @@
         <v>0.54641098085876905</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -27909,7 +27918,7 @@
         <v>0.55697391580477029</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -27942,7 +27951,7 @@
         <v>0.56717953802245147</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -27975,7 +27984,7 @@
         <v>0.57705012480539575</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -28008,7 +28017,7 @@
         <v>0.58659321392580666</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -28041,7 +28050,7 @@
         <v>0.59581537851452671</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -28074,7 +28083,7 @@
         <v>0.60473336578942416</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -28107,7 +28116,7 @@
         <v>0.61345822333980549</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -28140,7 +28149,7 @@
         <v>0.62196802387474881</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -28173,7 +28182,7 @@
         <v>0.63061804357228579</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -28206,7 +28215,7 @@
         <v>0.63896945159646268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -28239,7 +28248,7 @@
         <v>0.64710464815799962</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -28272,7 +28281,7 @@
         <v>0.65569417916766248</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -28305,7 +28314,7 @@
         <v>0.66460163963186136</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -28338,7 +28347,7 @@
         <v>0.67364500673398753</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -28371,7 +28380,7 @@
         <v>0.68257716917503208</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -28404,7 +28413,7 @@
         <v>0.6915250885733023</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -28437,7 +28446,7 @@
         <v>0.70051026883703293</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -28470,7 +28479,7 @@
         <v>0.7095881015038672</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -28503,7 +28512,7 @@
         <v>0.71905840549785682</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -28536,7 +28545,7 @@
         <v>0.72878233478899535</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -28569,7 +28578,7 @@
         <v>0.7383497551851127</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -28602,7 +28611,7 @@
         <v>0.74794424226450984</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -28635,7 +28644,7 @@
         <v>0.7580776858350412</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -28668,7 +28677,7 @@
         <v>0.76840022225256022</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -28701,7 +28710,7 @@
         <v>0.7784075356148491</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -28734,7 +28743,7 @@
         <v>0.78821627296976093</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -28767,7 +28776,7 @@
         <v>0.79859686723072898</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -28800,7 +28809,7 @@
         <v>0.80924937770109406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -28833,7 +28842,7 @@
         <v>0.81976140449504142</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -28866,7 +28875,7 @@
         <v>0.83021738562877434</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -28899,7 +28908,7 @@
         <v>0.84067325908728618</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -28932,7 +28941,7 @@
         <v>0.8512114094403751</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -28965,7 +28974,7 @@
         <v>0.86161101140272089</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -28998,7 +29007,7 @@
         <v>0.87232734307503479</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -29031,7 +29040,7 @@
         <v>0.88267430402385627</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -29064,7 +29073,7 @@
         <v>0.89268816937787332</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -29097,7 +29106,7 @@
         <v>0.90277519683040219</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -29130,7 +29139,7 @@
         <v>0.91330787469053998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -29163,7 +29172,7 @@
         <v>0.92332594095346032</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -29196,7 +29205,7 @@
         <v>0.93310186977061327</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -29229,7 +29238,7 @@
         <v>0.94303971410204435</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -29262,7 +29271,7 @@
         <v>0.95306615282512064</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -29295,7 +29304,7 @@
         <v>0.96278673585201324</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -29328,7 +29337,7 @@
         <v>0.97218799267132316</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -29361,7 +29370,7 @@
         <v>0.98157271718551276</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -29394,7 +29403,7 @@
         <v>0.99067699907836893</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -29433,24 +29442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -29483,7 +29492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -29516,7 +29525,7 @@
         <v>1.3656340569620153E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -29549,7 +29558,7 @@
         <v>2.6896788704498402E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -29582,7 +29591,7 @@
         <v>3.9746985907771037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -29615,7 +29624,7 @@
         <v>5.2222964920420334E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -29648,7 +29657,7 @@
         <v>6.4368387252417045E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -29681,7 +29690,7 @@
         <v>7.6236524952245199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -29714,7 +29723,7 @@
         <v>8.7792916879680979E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -29747,7 +29756,7 @@
         <v>9.878878127280083E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -29780,7 +29789,7 @@
         <v>0.10918137631142938</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -29813,7 +29822,7 @@
         <v>0.11907638402133734</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -29846,7 +29855,7 @@
         <v>0.12866767157151018</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -29879,7 +29888,7 @@
         <v>0.13831904781468796</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -29912,7 +29921,7 @@
         <v>0.1480343600372159</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -29945,7 +29954,7 @@
         <v>0.15778144695095089</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -29978,7 +29987,7 @@
         <v>0.16762070230489412</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -30011,7 +30020,7 @@
         <v>0.17767207953086986</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -30044,7 +30053,7 @@
         <v>0.18808326440299991</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -30077,7 +30086,7 @@
         <v>0.19885108309697214</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -30110,7 +30119,7 @@
         <v>0.21000418489702155</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -30143,7 +30152,7 @@
         <v>0.22161791804572109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -30176,7 +30185,7 @@
         <v>0.23369988337869949</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -30209,7 +30218,7 @@
         <v>0.24628664599583799</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -30242,7 +30251,7 @@
         <v>0.25888894379837107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -30275,7 +30284,7 @@
         <v>0.27147373404838571</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -30308,7 +30317,7 @@
         <v>0.28539466672891517</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -30341,7 +30350,7 @@
         <v>0.30073998851388445</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -30374,7 +30383,7 @@
         <v>0.31638010222735358</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -30407,7 +30416,7 @@
         <v>0.33104012273548722</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -30440,7 +30449,7 @@
         <v>0.34573881177911991</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -30473,7 +30482,7 @@
         <v>0.360789523619852</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -30506,7 +30515,7 @@
         <v>0.37593204301358485</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -30539,7 +30548,7 @@
         <v>0.3910252765470168</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -30572,7 +30581,7 @@
         <v>0.40599204110403436</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -30605,7 +30614,7 @@
         <v>0.42062257425260857</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -30638,7 +30647,7 @@
         <v>0.43530181120107136</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -30671,7 +30680,7 @@
         <v>0.45011103401506508</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -30704,7 +30713,7 @@
         <v>0.46353517757871099</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -30737,7 +30746,7 @@
         <v>0.47548599828828697</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -30770,7 +30779,7 @@
         <v>0.48712736179848426</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -30803,7 +30812,7 @@
         <v>0.49964338112998358</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -30836,7 +30845,7 @@
         <v>0.51188269461140312</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -30869,7 +30878,7 @@
         <v>0.52355799582928841</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -30902,7 +30911,7 @@
         <v>0.53450978846019337</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -30935,7 +30944,7 @@
         <v>0.54436069945337084</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -30968,7 +30977,7 @@
         <v>0.55393807332600642</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -31001,7 +31010,7 @@
         <v>0.56332758754931145</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -31034,7 +31043,7 @@
         <v>0.57255306673809503</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -31067,7 +31076,7 @@
         <v>0.58142541223132971</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -31100,7 +31109,7 @@
         <v>0.59006379771544504</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -31133,7 +31142,7 @@
         <v>0.59846722263422214</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -31166,7 +31175,7 @@
         <v>0.60662220108727438</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -31199,7 +31208,7 @@
         <v>0.61457829082097359</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -31232,7 +31241,7 @@
         <v>0.62237585631247716</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -31265,7 +31274,7 @@
         <v>0.6298880861540842</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -31298,7 +31307,7 @@
         <v>0.63749340894098172</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -31331,7 +31340,7 @@
         <v>0.64561409571501616</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -31364,7 +31373,7 @@
         <v>0.65313480043598193</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -31397,7 +31406,7 @@
         <v>0.66050350073315112</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -31430,7 +31439,7 @@
         <v>0.66779650105029675</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -31463,7 +31472,7 @@
         <v>0.67504693018452744</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -31496,7 +31505,7 @@
         <v>0.6823174048798758</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -31529,7 +31538,7 @@
         <v>0.68959063446800128</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -31562,7 +31571,7 @@
         <v>0.69682834916773473</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -31595,7 +31604,7 @@
         <v>0.70406315588253243</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -31628,7 +31637,7 @@
         <v>0.71129662636782909</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -31661,7 +31670,7 @@
         <v>0.71860409094391597</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -31694,7 +31703,7 @@
         <v>0.72593880822951629</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -31727,7 +31736,7 @@
         <v>0.73329342342204551</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -31760,7 +31769,7 @@
         <v>0.74107346056343026</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -31793,7 +31802,7 @@
         <v>0.74881593059014939</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -31826,7 +31835,7 @@
         <v>0.75647181799617125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -31859,7 +31868,7 @@
         <v>0.76413109037797455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -31892,7 +31901,7 @@
         <v>0.77187834979355674</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -31925,7 +31934,7 @@
         <v>0.77975707263263216</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -31958,7 +31967,7 @@
         <v>0.78765505908067268</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -31991,7 +32000,7 @@
         <v>0.79559730708164789</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -32024,7 +32033,7 @@
         <v>0.80376988144658679</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -32057,7 +32066,7 @@
         <v>0.81218106490196795</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -32090,7 +32099,7 @@
         <v>0.82104455985306646</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -32123,7 +32132,7 @@
         <v>0.83020247818305748</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -32156,7 +32165,7 @@
         <v>0.8396818225380549</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -32189,7 +32198,7 @@
         <v>0.84949708023876713</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -32222,7 +32231,7 @@
         <v>0.85894034306326961</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -32255,7 +32264,7 @@
         <v>0.86848083702552281</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -32288,7 +32297,7 @@
         <v>0.87842008802582572</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -32321,7 +32330,7 @@
         <v>0.88863358625512512</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -32354,7 +32363,7 @@
         <v>0.89926973370162677</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -32387,7 +32396,7 @@
         <v>0.91008127500877845</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -32420,7 +32429,7 @@
         <v>0.92089963337407388</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -32453,7 +32462,7 @@
         <v>0.93182518454802676</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -32486,7 +32495,7 @@
         <v>0.94278166851165701</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -32519,7 +32528,7 @@
         <v>0.95376081466528262</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -32552,7 +32561,7 @@
         <v>0.9647006381373211</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -32585,7 +32594,7 @@
         <v>0.97559430583047091</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -32618,7 +32627,7 @@
         <v>0.98754621174285828</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>

--- a/Inputs/Referenzlastprofile_EFH_NEH_15_Min.xlsx
+++ b/Inputs/Referenzlastprofile_EFH_NEH_15_Min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7753ade917cafa6a/Desktop/thesis_del/hemsrechner/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B184C-E214-4B89-9E71-BC9C7B06AB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24750" yWindow="2415" windowWidth="21600" windowHeight="11100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÜWH" sheetId="4" r:id="rId1"/>
@@ -428,21 +428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -508,7 +508,7 @@
         <v>9.9248876240033788E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1.9832767661777412E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -574,7 +574,7 @@
         <v>2.962512496341542E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -607,7 +607,7 @@
         <v>3.9356055226255557E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -640,7 +640,7 @@
         <v>4.9107712798028447E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -673,7 +673,7 @@
         <v>5.892915759944535E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -706,7 +706,7 @@
         <v>6.8700539578364847E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -739,7 +739,7 @@
         <v>7.8359596507776852E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,7 +772,7 @@
         <v>8.7932300496658802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -805,7 +805,7 @@
         <v>9.7323589218850662E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.10672081151992227</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0.11614933232496451</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.12562902467109877</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0.13522225934112389</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,7 +970,7 @@
         <v>0.14792289912900702</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0.16225584569981366</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0.17655033665349298</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.19045752641990576</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0.20374120669107226</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.21701402827904709</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0.23035693872206858</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0.24374029317814819</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.25710899131460019</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0.27048241942026935</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0.28380576684429965</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.29707698371910635</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>0.3073994536177953</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0.31619239906966679</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.32498812079134298</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0.33408772772496487</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.34391518756746908</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.35321743072870376</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.36246341304941382</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0.37252427287390161</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0.38334087241286335</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0.39449548663167167</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0.40586093998753009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0.41741534260938756</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.42912835824239659</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0.44107509037878445</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0.45326448107294609</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0.46572509529661871</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.47827977177821079</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0.49167545544910496</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0.50526262286396062</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0.51813200039863094</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.53031535155253262</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0.54211735972451891</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0.5536108659936273</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.5647356640178528</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0.57548978667397221</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0.58581110370131162</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0.59579888076966381</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.60553496407294505</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.6149881839350726</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.62407147744191538</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0.63288096549585093</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0.64149769655748878</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0.64991951321812425</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.65781952823995093</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.66582890968719466</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.67393610549183547</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.68210226180421085</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.69044924593400625</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0.69906994925737975</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.70769275276914123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.71645513057358579</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0.72533760289028615</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0.7343177882382369</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0.74336680171862202</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.75262355536883274</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0.76253358557282924</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0.77252690261856616</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0.78253769577086851</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.79256380172940599</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0.80246686216692431</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.81213586277040384</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.8217152678768217</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.83124149507914546</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>0.84071855893579939</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.84968739004637284</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0.85872373125932899</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0.86772861530923096</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.87675758802352466</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.88576850688831799</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0.89496787406029554</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0.90432929042514132</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0.91393937308156759</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0.92371481893649199</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.93383773141660287</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0.94412138363322862</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0.95450931462645483</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.96566088598594046</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>0.97695794923155144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.98843930377629241</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -3656,17 +3656,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1.6699565319096322E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>3.4611988114782444E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>5.418463598658857E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>7.5008393835936285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>9.6941343441882516E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0.11945627168230856</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.14131649406317801</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0.16345678058696331</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0.18535471006265175</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0.20697391579277796</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0.22820807044131547</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.24876893371401926</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0.26799367300018206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0.28612433289876166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.30267796133756159</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0.31747889088285103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0.33050500763742291</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0.34251014995715079</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>0.35471921631883435</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0.36659191250515488</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0.37883309945429422</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0.39118380824585858</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0.40319125204599227</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.41531530846057596</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0.4277048807246967</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0.43984270966164718</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0.45107278759433472</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0.46145032379123302</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0.47183687059285212</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.48171349230905697</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0.49148160389511336</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0.50114216380527066</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.51037258305780187</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0.51945370492350884</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0.52845659422229985</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.5370358812749304</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0.54523219783905419</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0.55338150798580454</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0.56198904302395269</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0.57124897777415251</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0.58037027043142431</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0.5892561914449006</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0.59765488929436827</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0.60568238591092416</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.61354635173408612</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.62112525251625172</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.62857184419540479</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0.63614096226684014</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0.64368323017521967</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.65102025229362015</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0.65836630570646293</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0.66560241623220862</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0.67266371486045473</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0.67983534038800064</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0.68722331070557618</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>0.69470001658257929</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0.70234230172599021</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0.70996644563119049</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0.71748595599488008</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>0.72491788811013369</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0.73234019106926174</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0.73985473746488717</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0.74702942474454981</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0.75397823089787464</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0.76106862988424251</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0.7681221671293077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.77522745001251658</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.78240843567682883</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>0.78964529198437883</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>0.79689827573717176</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0.80420584887051016</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0.8115691341392014</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0.81891729714059136</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0.82621962850268527</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0.83388886469996271</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0.84190084434344004</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0.84992649313676794</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0.85760832653434527</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>0.86541201077991259</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0.87318291651692137</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0.88084932919881176</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0.88871539905511365</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0.89657901288606978</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>0.90429278078009678</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0.91221380531885399</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0.92013104723135741</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0.92799695351137734</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>0.9358663788660565</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.94357503769143203</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0.95158070747502954</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0.95963565577502175</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0.96776696056017064</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0.97584698055960628</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0.98379788510445609</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>0.99184810265645662</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -6881,17 +6881,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>8.6377243423604276E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1.7860949709387237E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>2.7550033350512738E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>3.7692699747617096E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>4.8346936701460279E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>5.942981889989863E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>7.1072663963946126E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>8.3499659733382747E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>9.6771538834250367E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>0.11077887723960073</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>0.12536631087265987</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0.14250308154414273</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>0.16214145908049166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0.18407929320197436</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>0.20816556836336619</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>0.23426820992842717</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0.26207023818479391</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>0.29133547832860657</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>0.32005713087263565</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0.34847813338210776</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0.37684567029129085</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.40455932561207825</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>0.43154373094956106</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>0.45571848129784698</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>0.47691902771915373</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0.49518182527226995</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0.51064109028366822</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0.52336219556464503</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>0.53352882726364448</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0.5410669869916902</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0.54804642124494818</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0.55442690475918988</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.55989504580772764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0.56504180463065801</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>0.57009462962166724</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0.57508316062059028</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>0.5800608080875933</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0.58508320070079967</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0.59022541612474622</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0.59555491735818056</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>0.60105173983236782</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>0.60700894739124733</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>0.61320386414293904</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>0.61941110211527028</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>0.6255718902216334</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>0.63173337611377411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0.63790792041045519</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0.64407124486192913</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>0.65020244439020669</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>0.65631966544549214</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.66227579817545923</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>0.66798742958861101</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0.673499739049229</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0.67884063536404982</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>0.68384361447724362</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0.68856188326572354</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.69320790145048972</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>0.69784359797899731</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0.70252164012248008</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>0.70726752190795916</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0.71203688009975008</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0.71678960023130889</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0.7215758045189995</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0.72642037436607398</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0.73127114869540644</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>0.73612397103831106</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0.74127399900345481</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0.7466608556139358</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>0.75215086344152182</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0.75735491457450232</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0.76255197923330909</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0.76814343399673657</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0.77398834794023896</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0.78016487380534505</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0.78670592497166847</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>0.79369974842256441</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0.80115418724894893</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>0.8092836353401095</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0.81796414569775411</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0.82714390134446303</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>0.83691300376801803</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>0.84763177115155153</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>0.85885891027415051</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>0.86967847098649398</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>0.88081961606594494</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0.89221515285973507</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>0.90382084685032005</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0.9154265385519198</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0.9268797795784991</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0.9378936939008844</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>0.94863990082021277</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>0.95929981534527065</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0.96967636269741919</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>0.9797259750904237</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>0.98954191640126532</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -10105,17 +10105,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>1.3080119309074E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>2.6369898854692091E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>3.9692893428316035E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>5.2655753762562513E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>6.5844689957028121E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>7.8996021167088704E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>9.2328386004902355E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0.10581372650036203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>0.1194977736729653</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>0.13337609164267689</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.1474526340729847</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>0.16169626623040387</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>0.17599964210712254</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0.19031633992528432</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>0.20478996876456962</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.21976958059673349</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>0.23436690453576531</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0.2492362989616535</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0.26416312307803896</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>0.27904803522691041</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0.29393436149676394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0.30877315069300487</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>0.32357029270261656</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0.33834600474403526</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>0.35309863673546305</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>0.36784619995772982</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>0.38252963305690485</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>0.39708507024748435</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0.41183511303937842</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0.42624526623353443</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>0.44038809078570812</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0.45422058603819915</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0.46767986153154772</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0.48078252595032528</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>0.49333647458493718</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.50571215343125742</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0.51752414080568054</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>0.52892525124141287</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>0.53995792689665179</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>0.5506403546240598</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>0.56109925633819802</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0.57133102930442492</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>0.58118767393556681</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>0.59082828144929744</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>0.60004233821664033</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>0.60897897019077729</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>0.61767171257521447</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>0.62619183479392426</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>0.63436872328444649</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>0.64241606051117406</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>0.6501848453037341</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0.6575828491770479</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>0.66459165333836823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>0.67151038892598469</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0.67809795769221526</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>0.68451606377229812</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0.69102426864134747</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>0.69752524499988755</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>0.70417230386136043</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>0.71077745933914627</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>0.7172965670166177</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0.72369746506455135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0.73009317370187243</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0.73656170790182773</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0.7431179334123551</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>0.74955329183114705</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.7562384813887556</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>0.76289230938292607</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>0.76971572094241314</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0.77635478815505798</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0.78288538701228627</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>0.78913381747848821</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0.79570693760214828</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>0.80251184387835972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0.80943093135209176</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>0.81646058242594888</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>0.82357525020953981</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>0.83074993743865888</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>0.83815441165012328</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>0.84587936342037418</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>0.85364581373207105</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>0.86180506293594872</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>0.8704117495105419</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>0.87931821754098272</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>0.8885221681511748</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0.89776087576594188</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>0.9069788689915681</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>0.91676575551264505</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>0.92669954233587093</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0.9368970567400714</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>0.94725498061793112</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>0.95762107224171245</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>0.96809968961168091</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>0.97871855326303658</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>0.98931621355323429</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -13329,17 +13329,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1.4283897321355073E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>2.8751266436658887E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>4.3199207811739998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>5.7440229580141132E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>7.153532900102294E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>8.5806728362519513E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>9.9714086961459267E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.11355795535526529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>0.12768136841455208</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>0.14176800359024019</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0.15575297472676769</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0.16965492903227955</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>0.18365458337359672</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>0.19736197629634869</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>0.21097670451620806</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>0.22497446515101027</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>0.23892018430805442</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>0.2526317439327207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0.26656087331722</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>0.28067607803199673</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>0.29475561074109907</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>0.3087202855354596</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>0.32240031473791281</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>0.33536971136892985</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>0.34817830565601265</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>0.3609466503879768</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>0.37362309695822943</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>0.38616760102556019</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0.39870107332760124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>0.41104177958936949</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>0.42235200069203166</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>0.43316746302280484</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0.44404158535808852</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>0.45483410080085496</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>0.46595675391080948</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0.4778667055408215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>0.48962482808885055</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>0.50144344872570479</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0.51333825427314916</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>0.52524240437255054</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>0.53731585766943268</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>0.54881196971556134</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>0.56035860719137798</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0.57223324686672494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>0.58378618724429676</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>0.59544828596480348</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>0.60738941181692752</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>0.61898364674470863</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>0.63062408253058178</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>0.64248646010283783</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>0.65418701443387517</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0.66556124867168309</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>0.67700987201032847</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>0.68866875438999753</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>0.70011641089590704</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>0.71047206462582846</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0.71983878163485593</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>0.72812872837310527</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>0.73506623057249987</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>0.74102178834573973</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>0.74599159968821449</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>0.7497066799063995</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>0.75250388769800225</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>0.75432916475342215</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>0.75491020916296214</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>0.75493982304998097</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>0.75547294482062921</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>0.75857579493945548</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>0.76333151591595771</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>0.7697338085890949</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>0.77755978792071889</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>0.7867871693714531</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>0.79757565568326638</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>0.80975013268140439</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>0.82311469767283751</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>0.83788464893530679</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>0.85391883445886363</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>0.87104408649197629</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>0.88886143045470134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>0.9055517329984073</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0.92186577372692013</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>0.937849132173183</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0.95371993987093806</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>0.96947615090246142</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>0.9848321338985272</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -16553,17 +16553,17 @@
       <selection activeCell="K2" sqref="K2:K97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -19773,21 +19773,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -23001,17 +23001,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>1.01333104036992E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>1.9920790577768313E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>2.9512470896657386E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>3.8877275984083949E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>4.8131301540396208E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>5.7262184863814874E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>6.6429333118798881E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>7.5616378052279776E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>8.4773806308431787E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>9.3883315853822633E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>0.10301599752471682</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>0.11293184248570629</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>0.12592760694012478</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>0.14259189134168504</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>0.16280037114032928</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>0.18644848666561348</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>0.2133576236990633</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>0.24210000930652795</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>0.27060855440740123</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>0.30143098671671537</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>0.3343267102328798</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>0.36892372548912472</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>0.40462030397213278</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>0.43999653898034935</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0.47242716580548211</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>0.501140901431957</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>0.52616530033311371</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>0.54764265432528569</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>0.5657568462124436</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>0.58210494851891204</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>0.59884898069140668</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>0.61334056189721442</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>0.62526823158772615</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>0.6347135743184612</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>0.64242850455695655</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>0.64912386196700267</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0.65536652819276919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>0.6615650552760397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>0.66770689133656191</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>0.6737905592898904</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -24397,7 +24397,7 @@
         <v>0.67973928349196333</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>0.68539710846473556</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>0.69057431407322789</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>0.69542795509927824</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>0.70038291295142063</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>0.70549068375574842</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -24595,7 +24595,7 @@
         <v>0.71072272595554498</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -24628,7 +24628,7 @@
         <v>0.71592107524958837</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>0.72107993754476607</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>0.72626803428291031</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>0.73146846173565661</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0.73668992527377508</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>0.74194790720123327</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>0.74723550440498665</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -24859,7 +24859,7 @@
         <v>0.75259304494157286</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>0.75797780654154712</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>0.76349190213828066</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>0.76931142233182159</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>0.775105421675229</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>0.78086364235528105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>0.78657438707542116</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>0.79220403162560937</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>0.7979319451733452</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>0.80363002226823821</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0.80929998482123611</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>0.81494422064813199</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>0.82032207986895389</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>0.82546985057426903</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>0.83064231315242587</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>0.83585202314850726</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>0.84112086899531135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -25420,7 +25420,7 @@
         <v>0.84647353832651828</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>0.85186357764215925</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>0.85731045292672059</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>0.86275993744757462</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>0.8682977014755755</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>0.87390935355687327</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>0.87958585053662808</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>0.88551116538166197</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -25684,7 +25684,7 @@
         <v>0.89170435868897679</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>0.89789795925794957</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>0.90412439120218246</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>0.91041180049945669</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>0.91675124604447289</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>0.92318112410566311</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>0.92969258387416909</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>0.93629156098229749</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -25948,7 +25948,7 @@
         <v>0.94295911531181731</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -25981,7 +25981,7 @@
         <v>0.94970868637265726</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>0.95656647698899833</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>0.96356008704880902</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>0.97064708087136709</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>0.97784627493409726</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>0.98514165067689186</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>0.99251672901651899</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -26225,17 +26225,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -26268,7 +26268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>1.0552856887292482E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>2.1043114927829294E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>3.1528845280479327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>4.20972082557068E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>5.2741628571634711E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>6.3406497379661655E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>7.4159540723747613E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -26532,7 +26532,7 @@
         <v>8.4809800615507858E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>9.5262164945927402E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>0.10598786551657907</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>0.1166757839620754</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -26664,7 +26664,7 @@
         <v>0.12732123660451081</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>0.13808776415659668</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>0.14893800622324388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -26763,7 +26763,7 @@
         <v>0.15978238591664715</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>0.17062059841089822</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -26829,7 +26829,7 @@
         <v>0.18147351420512822</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>0.19240125559410942</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>0.20330533191615838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>0.21434127461486613</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>0.22574148741584826</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -26994,7 +26994,7 @@
         <v>0.23690000443555698</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>0.24814827060685843</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>0.25954297885984234</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>0.27035219339170913</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>0.28133897352745485</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -27159,7 +27159,7 @@
         <v>0.29243565755942863</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -27192,7 +27192,7 @@
         <v>0.3034860422334692</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>0.31460706031218716</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>0.3257536480744555</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>0.33706488696871961</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -27324,7 +27324,7 @@
         <v>0.34842168119348516</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -27357,7 +27357,7 @@
         <v>0.3597859060371098</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -27390,7 +27390,7 @@
         <v>0.37126410709535868</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -27423,7 +27423,7 @@
         <v>0.38247438127421018</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>0.3937496869715898</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0.40560272700201544</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -27522,7 +27522,7 @@
         <v>0.41738096381587653</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>0.42920112872191873</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -27588,7 +27588,7 @@
         <v>0.44114291324490679</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>0.45305585206997928</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>0.46497010595549465</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>0.47688339091994836</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>0.48868741113058806</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>0.50041703491419054</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -27786,7 +27786,7 @@
         <v>0.51211283642546768</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>0.52403003258827141</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>0.53552208369385446</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>0.54641098085876905</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -27918,7 +27918,7 @@
         <v>0.55697391580477029</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -27951,7 +27951,7 @@
         <v>0.56717953802245147</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>0.57705012480539575</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>0.58659321392580666</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>0.59581537851452671</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -28083,7 +28083,7 @@
         <v>0.60473336578942416</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>0.61345822333980549</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>0.62196802387474881</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -28182,7 +28182,7 @@
         <v>0.63061804357228579</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>0.63896945159646268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>0.64710464815799962</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -28281,7 +28281,7 @@
         <v>0.65569417916766248</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -28314,7 +28314,7 @@
         <v>0.66460163963186136</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>0.67364500673398753</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>0.68257716917503208</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>0.6915250885733023</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -28446,7 +28446,7 @@
         <v>0.70051026883703293</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>0.7095881015038672</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>0.71905840549785682</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -28545,7 +28545,7 @@
         <v>0.72878233478899535</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>0.7383497551851127</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>0.74794424226450984</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -28644,7 +28644,7 @@
         <v>0.7580776858350412</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -28677,7 +28677,7 @@
         <v>0.76840022225256022</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>0.7784075356148491</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>0.78821627296976093</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>0.79859686723072898</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>0.80924937770109406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -28842,7 +28842,7 @@
         <v>0.81976140449504142</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -28875,7 +28875,7 @@
         <v>0.83021738562877434</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -28908,7 +28908,7 @@
         <v>0.84067325908728618</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>0.8512114094403751</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>0.86161101140272089</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0.87232734307503479</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>0.88267430402385627</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>0.89268816937787332</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>0.90277519683040219</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -29139,7 +29139,7 @@
         <v>0.91330787469053998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -29172,7 +29172,7 @@
         <v>0.92332594095346032</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>0.93310186977061327</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>0.94303971410204435</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -29271,7 +29271,7 @@
         <v>0.95306615282512064</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -29304,7 +29304,7 @@
         <v>0.96278673585201324</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -29337,7 +29337,7 @@
         <v>0.97218799267132316</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>0.98157271718551276</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -29403,7 +29403,7 @@
         <v>0.99067699907836893</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -29449,17 +29449,17 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.73046875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -29492,7 +29492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>1.3656340569620153E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -29558,7 +29558,7 @@
         <v>2.6896788704498402E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>3.9746985907771037E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -29624,7 +29624,7 @@
         <v>5.2222964920420334E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -29657,7 +29657,7 @@
         <v>6.4368387252417045E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -29690,7 +29690,7 @@
         <v>7.6236524952245199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>8.7792916879680979E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>9.878878127280083E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -29789,7 +29789,7 @@
         <v>0.10918137631142938</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -29822,7 +29822,7 @@
         <v>0.11907638402133734</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>0.12866767157151018</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>0.13831904781468796</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>0.1480343600372159</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>0.15778144695095089</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>0.16762070230489412</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>0.17767207953086986</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>0.18808326440299991</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>0.19885108309697214</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -30119,7 +30119,7 @@
         <v>0.21000418489702155</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>0.22161791804572109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>0.23369988337869949</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>0.24628664599583799</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>0.25888894379837107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>0.27147373404838571</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>0.28539466672891517</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>0.30073998851388445</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>0.31638010222735358</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -30416,7 +30416,7 @@
         <v>0.33104012273548722</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -30449,7 +30449,7 @@
         <v>0.34573881177911991</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -30482,7 +30482,7 @@
         <v>0.360789523619852</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>0.37593204301358485</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>0.3910252765470168</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -30581,7 +30581,7 @@
         <v>0.40599204110403436</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -30614,7 +30614,7 @@
         <v>0.42062257425260857</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>0.43530181120107136</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -30680,7 +30680,7 @@
         <v>0.45011103401506508</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -30713,7 +30713,7 @@
         <v>0.46353517757871099</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>0.47548599828828697</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>0.48712736179848426</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>0.49964338112998358</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>0.51188269461140312</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>0.52355799582928841</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -30911,7 +30911,7 @@
         <v>0.53450978846019337</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>0.54436069945337084</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -30977,7 +30977,7 @@
         <v>0.55393807332600642</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -31010,7 +31010,7 @@
         <v>0.56332758754931145</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>0.57255306673809503</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>0.58142541223132971</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>0.59006379771544504</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>0.59846722263422214</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>0.60662220108727438</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>0.61457829082097359</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>0.62237585631247716</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -31274,7 +31274,7 @@
         <v>0.6298880861540842</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>0.63749340894098172</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -31340,7 +31340,7 @@
         <v>0.64561409571501616</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -31373,7 +31373,7 @@
         <v>0.65313480043598193</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>0.66050350073315112</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>0.66779650105029675</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -31472,7 +31472,7 @@
         <v>0.67504693018452744</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>0.6823174048798758</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>0.68959063446800128</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -31571,7 +31571,7 @@
         <v>0.69682834916773473</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>0.70406315588253243</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -31637,7 +31637,7 @@
         <v>0.71129662636782909</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>0.71860409094391597</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -31703,7 +31703,7 @@
         <v>0.72593880822951629</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -31736,7 +31736,7 @@
         <v>0.73329342342204551</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>0.74107346056343026</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -31802,7 +31802,7 @@
         <v>0.74881593059014939</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>0.75647181799617125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -31868,7 +31868,7 @@
         <v>0.76413109037797455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>0.77187834979355674</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -31934,7 +31934,7 @@
         <v>0.77975707263263216</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -31967,7 +31967,7 @@
         <v>0.78765505908067268</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -32000,7 +32000,7 @@
         <v>0.79559730708164789</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>0.80376988144658679</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -32066,7 +32066,7 @@
         <v>0.81218106490196795</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -32099,7 +32099,7 @@
         <v>0.82104455985306646</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -32132,7 +32132,7 @@
         <v>0.83020247818305748</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -32165,7 +32165,7 @@
         <v>0.8396818225380549</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>0.84949708023876713</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>0.85894034306326961</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -32264,7 +32264,7 @@
         <v>0.86848083702552281</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -32297,7 +32297,7 @@
         <v>0.87842008802582572</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>0.88863358625512512</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -32363,7 +32363,7 @@
         <v>0.89926973370162677</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>0.91008127500877845</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -32429,7 +32429,7 @@
         <v>0.92089963337407388</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>0.93182518454802676</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>0.94278166851165701</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>0.95376081466528262</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>0.9647006381373211</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -32594,7 +32594,7 @@
         <v>0.97559430583047091</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -32627,7 +32627,7 @@
         <v>0.98754621174285828</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
